--- a/data_out2020/changes/Deterioration within Each Dimension - by Context.xlsx
+++ b/data_out2020/changes/Deterioration within Each Dimension - by Context.xlsx
@@ -684,13 +684,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.50954596870911</v>
+        <v>-1.50954596874474</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.5942642461041</v>
+        <v>-1.59426424614002</v>
       </c>
       <c r="J2" t="n">
         <v>-0.085</v>
@@ -719,13 +719,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0470888590386152</v>
+        <v>0.0470888589604926</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.506146539453477</v>
+        <v>-0.506146539531334</v>
       </c>
       <c r="J3" t="n">
         <v>-0.553</v>
@@ -943,13 +943,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.83436338924912</v>
+        <v>-2.83436338924524</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.92817740560514</v>
+        <v>-2.92817740560075</v>
       </c>
       <c r="J2" t="n">
         <v>-0.094</v>
@@ -1083,13 +1083,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.07153384624031</v>
+        <v>-2.07153384623961</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.84419041352758</v>
+        <v>-1.84419041352665</v>
       </c>
       <c r="J6" t="n">
         <v>0.227</v>
@@ -1202,13 +1202,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.87421584205682</v>
+        <v>-1.87421584203931</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.9111043401677</v>
+        <v>-1.91110434015121</v>
       </c>
       <c r="J2" t="n">
         <v>-0.037</v>
@@ -1237,13 +1237,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.22866197794626</v>
+        <v>-2.22866197791683</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.47937051783559</v>
+        <v>-2.47937051780582</v>
       </c>
       <c r="J3" t="n">
         <v>-0.251</v>
@@ -1461,13 +1461,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.23306791984124</v>
+        <v>-1.23306791986666</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.23435126873152</v>
+        <v>-1.23435126875711</v>
       </c>
       <c r="J2" t="n">
         <v>-0.001</v>
@@ -1496,13 +1496,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.96909229627778</v>
+        <v>-1.96909229631837</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.25228726162269</v>
+        <v>-2.25228726166296</v>
       </c>
       <c r="J3" t="n">
         <v>-0.283</v>
@@ -1720,13 +1720,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.61864624735335</v>
+        <v>-1.61864624736572</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.66042950526625</v>
+        <v>-1.66042950527787</v>
       </c>
       <c r="J2" t="n">
         <v>-0.042</v>
@@ -1895,13 +1895,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.97038721582008</v>
+        <v>-2.9703872158322</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.60525977566744</v>
+        <v>-2.60525977567958</v>
       </c>
       <c r="J7" t="n">
         <v>0.365</v>
@@ -1979,13 +1979,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.19385780659742</v>
+        <v>-2.19385780659699</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.23478583147065</v>
+        <v>-2.23478583147039</v>
       </c>
       <c r="J2" t="n">
         <v>-0.041</v>
@@ -2049,13 +2049,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.26228233182277</v>
+        <v>-1.26228233182688</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.6488350781767</v>
+        <v>-1.64883507818055</v>
       </c>
       <c r="J4" t="n">
         <v>-0.387</v>
@@ -2238,13 +2238,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.46236022007088</v>
+        <v>-1.46236022005653</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.52604152975796</v>
+        <v>-1.52604152974272</v>
       </c>
       <c r="J2" t="n">
         <v>-0.064</v>
@@ -2273,13 +2273,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.247762978890728</v>
+        <v>0.24776297891649</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0431350993096814</v>
+        <v>-0.0431350992833534</v>
       </c>
       <c r="J3" t="n">
         <v>-0.291</v>
@@ -2497,13 +2497,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.24770575566678</v>
+        <v>-2.24770575561652</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.47366141848774</v>
+        <v>-2.47366141843785</v>
       </c>
       <c r="J2" t="n">
         <v>-0.226</v>
@@ -2567,13 +2567,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.719762440809113</v>
+        <v>-0.719762440715938</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.34780771294686</v>
+        <v>-1.34780771285324</v>
       </c>
       <c r="J4" t="n">
         <v>-0.628</v>
@@ -2756,13 +2756,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.42976563819312</v>
+        <v>-1.42976563823167</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.43329910126417</v>
+        <v>-1.43329910130259</v>
       </c>
       <c r="J2" t="n">
         <v>-0.004</v>
@@ -2791,13 +2791,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.43738558067715</v>
+        <v>-1.43738558075719</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.62593251121741</v>
+        <v>-1.62593251129731</v>
       </c>
       <c r="J3" t="n">
         <v>-0.189</v>
@@ -3015,13 +3015,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.82433236024432</v>
+        <v>-1.82433236026186</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.83233988322998</v>
+        <v>-1.8323398832478</v>
       </c>
       <c r="J2" t="n">
         <v>-0.008</v>
@@ -3050,13 +3050,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.13432103029273</v>
+        <v>-2.13432103033018</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.49616588291098</v>
+        <v>-2.49616588294819</v>
       </c>
       <c r="J3" t="n">
         <v>-0.362</v>
@@ -3274,13 +3274,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.94120559713348</v>
+        <v>-1.94120559709324</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.03610833541803</v>
+        <v>-2.03610833537792</v>
       </c>
       <c r="J2" t="n">
         <v>-0.095</v>
@@ -3449,13 +3449,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.508495619768509</v>
+        <v>-0.508495619696952</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.468536866443688</v>
+        <v>-0.468536866371901</v>
       </c>
       <c r="J7" t="n">
         <v>0.04</v>
@@ -3533,13 +3533,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.1562851216767</v>
+        <v>-4.15628512170787</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.18989935930305</v>
+        <v>-4.18989935933375</v>
       </c>
       <c r="J2" t="n">
         <v>-0.034</v>
@@ -3603,13 +3603,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.610993456446</v>
+        <v>-2.61099345651264</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.59923589551675</v>
+        <v>-2.59923589558369</v>
       </c>
       <c r="J4" t="n">
         <v>0.012</v>
@@ -3792,13 +3792,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.96017459764965</v>
+        <v>-0.960174597649193</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.80125247164303</v>
+        <v>-1.80125247164438</v>
       </c>
       <c r="J2" t="n">
         <v>-0.841</v>
@@ -3897,13 +3897,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.33386034569621</v>
+        <v>-1.33386034568669</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.4797170478625</v>
+        <v>-2.47971704785322</v>
       </c>
       <c r="J5" t="n">
         <v>-1.146</v>
@@ -4051,13 +4051,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.71675618460126</v>
+        <v>-1.7167561846378</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.87225883786938</v>
+        <v>-1.87225883790481</v>
       </c>
       <c r="J2" t="n">
         <v>-0.156</v>
@@ -4086,13 +4086,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5467999793333</v>
+        <v>-0.546799979416468</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.859708901730345</v>
+        <v>-0.859708901813574</v>
       </c>
       <c r="J3" t="n">
         <v>-0.313</v>
@@ -4310,13 +4310,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.11634361493252</v>
+        <v>-2.11634361493277</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.13549141653403</v>
+        <v>-2.13549141653435</v>
       </c>
       <c r="J2" t="n">
         <v>-0.019</v>
@@ -4345,13 +4345,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.5192571984126</v>
+        <v>-3.51925719839874</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.58888404515562</v>
+        <v>-3.5888840451417</v>
       </c>
       <c r="J3" t="n">
         <v>-0.07</v>
@@ -4569,13 +4569,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.52558150942531</v>
+        <v>-1.52558150940822</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.80740467767441</v>
+        <v>-1.80740467765807</v>
       </c>
       <c r="J2" t="n">
         <v>-0.282</v>
@@ -4744,13 +4744,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.94047983269341</v>
+        <v>-1.94047983266698</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.10251010344946</v>
+        <v>-2.10251010342387</v>
       </c>
       <c r="J7" t="n">
         <v>-0.162</v>
@@ -4828,13 +4828,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.43327560225752</v>
+        <v>-4.43327560229651</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.51460469575541</v>
+        <v>-4.51460469579629</v>
       </c>
       <c r="J2" t="n">
         <v>-0.081</v>
@@ -4863,13 +4863,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.69017340270465</v>
+        <v>-2.6901734027911</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.33430661688489</v>
+        <v>-3.33430661697159</v>
       </c>
       <c r="J3" t="n">
         <v>-0.644</v>
@@ -5087,13 +5087,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.57585373787676</v>
+        <v>-3.57585373788319</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.6111931008518</v>
+        <v>-3.611193100858</v>
       </c>
       <c r="J2" t="n">
         <v>-0.035</v>
@@ -5157,13 +5157,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.43694267418136</v>
+        <v>-3.43694267419104</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.73681005478257</v>
+        <v>-3.73681005479307</v>
       </c>
       <c r="J4" t="n">
         <v>-0.3</v>
@@ -5346,13 +5346,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.24402774119857</v>
+        <v>-1.24402774124006</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.47408876655164</v>
+        <v>-1.47408876659324</v>
       </c>
       <c r="J2" t="n">
         <v>-0.23</v>
@@ -5381,13 +5381,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.969715200276089</v>
+        <v>-0.969715200355438</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.62180330273485</v>
+        <v>-1.62180330281357</v>
       </c>
       <c r="J3" t="n">
         <v>-0.652</v>
@@ -5605,13 +5605,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.59521963696148</v>
+        <v>-1.59521963698451</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.74338985314878</v>
+        <v>-1.74338985317171</v>
       </c>
       <c r="J2" t="n">
         <v>-0.148</v>
@@ -5640,13 +5640,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.52893397602078</v>
+        <v>-1.52893397606114</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.16664363744445</v>
+        <v>-2.16664363748464</v>
       </c>
       <c r="J3" t="n">
         <v>-0.638</v>
@@ -5864,13 +5864,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.37832802760183</v>
+        <v>-1.37832802757275</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.44334427359872</v>
+        <v>-1.44334427356975</v>
       </c>
       <c r="J2" t="n">
         <v>-0.065</v>
@@ -5969,13 +5969,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.878985453367597</v>
+        <v>-0.878985453306516</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.942657620139712</v>
+        <v>-0.942657620078496</v>
       </c>
       <c r="J5" t="n">
         <v>-0.064</v>
@@ -6123,13 +6123,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.06752950055001</v>
+        <v>-2.06752950053264</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.20798277996414</v>
+        <v>-2.20798277994734</v>
       </c>
       <c r="J2" t="n">
         <v>-0.14</v>
@@ -6158,13 +6158,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.73489165386352</v>
+        <v>-1.73489165382855</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.07472578565458</v>
+        <v>-2.07472578561961</v>
       </c>
       <c r="J3" t="n">
         <v>-0.34</v>
@@ -6382,13 +6382,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.0846330612738</v>
+        <v>-2.0846330613234</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.20884454729889</v>
+        <v>-2.20884454734835</v>
       </c>
       <c r="J2" t="n">
         <v>-0.124</v>
@@ -6487,13 +6487,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.45387744160988</v>
+        <v>-2.45387744170655</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.62357684793559</v>
+        <v>-2.6235768480321</v>
       </c>
       <c r="J5" t="n">
         <v>-0.17</v>
@@ -6641,13 +6641,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.21318430157419</v>
+        <v>-2.21318430153935</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.40213554420318</v>
+        <v>-2.40213554417025</v>
       </c>
       <c r="J2" t="n">
         <v>-0.189</v>
@@ -6816,13 +6816,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.16099449548907</v>
+        <v>-1.16099449541988</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.25157068561737</v>
+        <v>-1.2515706855479</v>
       </c>
       <c r="J7" t="n">
         <v>-0.091</v>
@@ -6900,13 +6900,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.87618509925437</v>
+        <v>-4.87618509921786</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.93428814719645</v>
+        <v>-4.93428814715969</v>
       </c>
       <c r="J2" t="n">
         <v>-0.058</v>
@@ -7040,13 +7040,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.30240938457252</v>
+        <v>-4.30240938450867</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.3300889817057</v>
+        <v>-4.33008898164139</v>
       </c>
       <c r="J6" t="n">
         <v>-0.028</v>
@@ -7159,13 +7159,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.77099232722164</v>
+        <v>-1.77099232724746</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.78913231166291</v>
+        <v>-1.78913231168957</v>
       </c>
       <c r="J2" t="n">
         <v>-0.018</v>
@@ -7229,13 +7229,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.09547093716749</v>
+        <v>-1.09547093722274</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.19410861758662</v>
+        <v>-1.1941086176423</v>
       </c>
       <c r="J4" t="n">
         <v>-0.099</v>
@@ -7418,13 +7418,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.88840317425645</v>
+        <v>-3.8884031742091</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.89839320172937</v>
+        <v>-3.89839320168245</v>
       </c>
       <c r="J2" t="n">
         <v>-0.01</v>
@@ -7558,13 +7558,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.00994754734428</v>
+        <v>-3.00994754724772</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.05723995968865</v>
+        <v>-3.057239959592</v>
       </c>
       <c r="J6" t="n">
         <v>-0.047</v>
@@ -7677,13 +7677,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.54815185013499</v>
+        <v>-1.54815185012637</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.75801147548215</v>
+        <v>-1.75801147547518</v>
       </c>
       <c r="J2" t="n">
         <v>-0.21</v>
@@ -7747,13 +7747,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.347293106846714</v>
+        <v>-0.347293106833423</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.623546163191059</v>
+        <v>-0.62354616317778</v>
       </c>
       <c r="J4" t="n">
         <v>-0.276</v>
@@ -7936,13 +7936,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.88293305942542</v>
+        <v>-1.882933059409</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.89551107248947</v>
+        <v>-1.89551107247236</v>
       </c>
       <c r="J2" t="n">
         <v>-0.013</v>
@@ -8076,13 +8076,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.0512157770614</v>
+        <v>-1.05121577702085</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.917831760979621</v>
+        <v>-0.917831760938813</v>
       </c>
       <c r="J6" t="n">
         <v>0.133</v>
@@ -8195,13 +8195,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.7431403062952</v>
+        <v>-1.74314030623895</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.79837077022521</v>
+        <v>-1.79837077016943</v>
       </c>
       <c r="J2" t="n">
         <v>-0.055</v>
@@ -8265,13 +8265,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.80221162111388</v>
+        <v>-1.80221162100726</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.92441857465282</v>
+        <v>-1.92441857454647</v>
       </c>
       <c r="J4" t="n">
         <v>-0.122</v>
@@ -8454,13 +8454,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.36583917115544</v>
+        <v>-3.36583917118735</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.374947291573</v>
+        <v>-3.37494729160697</v>
       </c>
       <c r="J2" t="n">
         <v>-0.009</v>
@@ -8559,13 +8559,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.49423246093161</v>
+        <v>-2.49423246100825</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.52102113215526</v>
+        <v>-2.52102113223178</v>
       </c>
       <c r="J5" t="n">
         <v>-0.027</v>
@@ -8713,13 +8713,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.00430954673782</v>
+        <v>-1.00430954668963</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.3686440793618</v>
+        <v>-1.36864407931386</v>
       </c>
       <c r="J2" t="n">
         <v>-0.364</v>
@@ -8818,13 +8818,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.18472243903672</v>
+        <v>-2.18472243894454</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.48288296765491</v>
+        <v>-2.4828829675629</v>
       </c>
       <c r="J5" t="n">
         <v>-0.298</v>
